--- a/Assets/Resources/Configs/Excel/MapConfig.xlsx
+++ b/Assets/Resources/Configs/Excel/MapConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19080" windowHeight="7820"/>
+    <workbookView windowWidth="18480" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>地图</t>
   </si>
@@ -22,6 +22,15 @@
     <t>地图名</t>
   </si>
   <si>
+    <t>图片</t>
+  </si>
+  <si>
+    <t>人物坐标</t>
+  </si>
+  <si>
+    <t>解锁条件</t>
+  </si>
+  <si>
     <t>#MapInfo</t>
   </si>
   <si>
@@ -34,6 +43,9 @@
     <t>playerPos</t>
   </si>
   <si>
+    <t>lockLv</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -46,40 +58,49 @@
     <t>地图1</t>
   </si>
   <si>
-    <t>Map1.png</t>
-  </si>
-  <si>
-    <t>-6,0.5</t>
+    <t>m_1</t>
+  </si>
+  <si>
+    <t>2.5,1</t>
   </si>
   <si>
     <t>地图2</t>
   </si>
   <si>
+    <t>m_2</t>
+  </si>
+  <si>
     <t>0,0</t>
   </si>
   <si>
     <t>地图3</t>
   </si>
   <si>
-    <t>Map2.png</t>
+    <t>m_3</t>
   </si>
   <si>
     <t>地图4</t>
   </si>
   <si>
-    <t>Map3.png</t>
+    <t>m_4</t>
   </si>
   <si>
     <t>地图5</t>
   </si>
   <si>
-    <t>Map4.png</t>
+    <t>m_5</t>
   </si>
   <si>
     <t>地图6</t>
   </si>
   <si>
-    <t>Map5.png</t>
+    <t>m_6</t>
+  </si>
+  <si>
+    <t>地图7</t>
+  </si>
+  <si>
+    <t>m_7</t>
   </si>
 </sst>
 </file>
@@ -87,9 +108,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="1">
@@ -456,18 +477,20 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr val="739CC3"/>
+            <a:srgbClr val="739CC3">
+              <a:alpha val="100000"/>
+            </a:srgbClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="200000"/>
@@ -484,132 +507,182 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/Excel/MapConfig.xlsx
+++ b/Assets/Resources/Configs/Excel/MapConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18480" windowHeight="8460"/>
+    <workbookView windowWidth="18480" windowHeight="8540"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>地图</t>
   </si>
@@ -25,12 +25,12 @@
     <t>图片</t>
   </si>
   <si>
-    <t>人物坐标</t>
-  </si>
-  <si>
     <t>解锁条件</t>
   </si>
   <si>
+    <t>加载场景(Main:1)</t>
+  </si>
+  <si>
     <t>#MapInfo</t>
   </si>
   <si>
@@ -40,39 +40,30 @@
     <t>image</t>
   </si>
   <si>
-    <t>playerPos</t>
-  </si>
-  <si>
     <t>lockLv</t>
   </si>
   <si>
+    <t>scene</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>Vector2</t>
-  </si>
-  <si>
     <t>地图1</t>
   </si>
   <si>
     <t>m_1</t>
   </si>
   <si>
-    <t>2.5,1</t>
-  </si>
-  <si>
     <t>地图2</t>
   </si>
   <si>
     <t>m_2</t>
   </si>
   <si>
-    <t>0,0</t>
-  </si>
-  <si>
     <t>地图3</t>
   </si>
   <si>
@@ -101,6 +92,12 @@
   </si>
   <si>
     <t>m_7</t>
+  </si>
+  <si>
+    <t>埃德蒙小镇</t>
+  </si>
+  <si>
+    <t>十字钥匙酒馆</t>
   </si>
 </sst>
 </file>
@@ -159,9 +156,6 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -507,13 +501,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -560,7 +558,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -571,16 +569,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
+      <c r="D4">
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,13 +586,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -605,16 +603,16 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -622,16 +620,16 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,16 +637,16 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -656,16 +654,16 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -673,16 +671,44 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10">
-        <v>7</v>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/Excel/MapConfig.xlsx
+++ b/Assets/Resources/Configs/Excel/MapConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18480" windowHeight="8540"/>
+    <workbookView windowWidth="28680" windowHeight="12620"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="1" r:id="rId1"/>
@@ -504,7 +504,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>

--- a/Assets/Resources/Configs/Excel/MapConfig.xlsx
+++ b/Assets/Resources/Configs/Excel/MapConfig.xlsx
@@ -504,7 +504,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
